--- a/data/SarmientoPublications1.xlsx
+++ b/data/SarmientoPublications1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="346">
   <si>
     <t>Broecker, W.S., J. Goddard, and J.L. Sarmiento, 1976. The distribution of 226Ra in the Atlantic Ocean. Earth Planet. Sci. Lett., 32, 220-235.</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Sarmiento, J. L., and E. Sundquist, 1992. Revised budget for the uptake of anthropogenic carbon dioxide. Nature, 356: 589-593.</t>
   </si>
   <si>
-    <t>Chemcial</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
   </si>
   <si>
     <t>Iglesias-Rodriguez, M. D., R. Armstrong, R. Feely, R. Hood, J. Kleypas, J. D. Milliman, C. Sabine, and J. Sarmiento, 2002. Progress made in study of ocean's calcium carbonate budget.   EOS Transactions, 83 (34): 365, 374-375.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical </t>
   </si>
   <si>
     <t>Gloor, M., N. Gruber, J. L. Sarmiento, C. S. Sabine, R. Feely, and C. Rödenbeck, 2003. A first estimate of present and pre-industrial air-sea CO2 flux patterns based on ocean interior carbon measurements. Geophys. Res. Lett., 30(1): 10.1029/2002GL015594.</t>
@@ -1689,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1709,7 +1703,7 @@
         <v>196</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>198</v>
@@ -1718,7 +1712,7 @@
         <v>197</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48">
@@ -1729,7 +1723,7 @@
         <v>1976</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
         <v>199</v>
@@ -1738,7 +1732,7 @@
         <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64">
@@ -1749,7 +1743,7 @@
         <v>1976</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
         <v>199</v>
@@ -1758,10 +1752,10 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48">
@@ -1772,13 +1766,13 @@
         <v>1976</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48">
@@ -1789,7 +1783,7 @@
         <v>1978</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
         <v>199</v>
@@ -1798,7 +1792,7 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48">
@@ -1809,7 +1803,7 @@
         <v>1980</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>199</v>
@@ -1818,7 +1812,7 @@
         <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48">
@@ -1829,7 +1823,7 @@
         <v>1980</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
         <v>199</v>
@@ -1838,7 +1832,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48">
@@ -1855,7 +1849,7 @@
         <v>1982</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
         <v>200</v>
@@ -1869,7 +1863,7 @@
         <v>1982</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
         <v>199</v>
@@ -1889,7 +1883,7 @@
         <v>1982</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
         <v>199</v>
@@ -1898,7 +1892,7 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32">
@@ -1909,7 +1903,7 @@
         <v>1983</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
         <v>200</v>
@@ -1926,7 +1920,7 @@
         <v>1983</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
         <v>200</v>
@@ -1943,13 +1937,13 @@
         <v>1984</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
         <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="64">
@@ -1960,7 +1954,7 @@
         <v>1985</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
         <v>200</v>
@@ -1974,7 +1968,7 @@
         <v>1985</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>199</v>
@@ -1983,10 +1977,10 @@
         <v>201</v>
       </c>
       <c r="F16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" t="s">
         <v>287</v>
-      </c>
-      <c r="G16" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="48">
@@ -1997,16 +1991,16 @@
         <v>1985</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
         <v>201</v>
       </c>
       <c r="F17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" t="s">
         <v>287</v>
-      </c>
-      <c r="G17" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="64">
@@ -2017,7 +2011,7 @@
         <v>1985</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
         <v>203</v>
@@ -2029,7 +2023,7 @@
         <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="32">
@@ -2040,7 +2034,7 @@
         <v>1985</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D19" t="s">
         <v>204</v>
@@ -2049,13 +2043,13 @@
         <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="96">
@@ -2066,19 +2060,19 @@
         <v>1985</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
         <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="48">
@@ -2089,16 +2083,16 @@
         <v>1986</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
       </c>
       <c r="F21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
         <v>287</v>
-      </c>
-      <c r="G21" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="32">
@@ -2109,13 +2103,13 @@
         <v>1986</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="48">
@@ -2126,7 +2120,7 @@
         <v>1986</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
         <v>200</v>
@@ -2143,13 +2137,13 @@
         <v>1986</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
         <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="32">
@@ -2160,7 +2154,7 @@
         <v>1986</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
         <v>204</v>
@@ -2169,13 +2163,13 @@
         <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="32">
@@ -2186,7 +2180,7 @@
         <v>1986</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
         <v>200</v>
@@ -2200,13 +2194,13 @@
         <v>1986</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
         <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="64">
@@ -2217,7 +2211,7 @@
         <v>1986</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
         <v>200</v>
@@ -2231,13 +2225,13 @@
         <v>1986</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
         <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="32">
@@ -2248,7 +2242,7 @@
         <v>1987</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
         <v>204</v>
@@ -2257,37 +2251,37 @@
         <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I30" t="s">
         <v>202</v>
       </c>
       <c r="J30" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>299</v>
+      </c>
+      <c r="M30" t="s">
         <v>300</v>
       </c>
-      <c r="K30" t="s">
-        <v>291</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>301</v>
       </c>
-      <c r="M30" t="s">
-        <v>302</v>
-      </c>
-      <c r="N30" t="s">
-        <v>303</v>
-      </c>
       <c r="O30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="48">
@@ -2298,16 +2292,16 @@
         <v>1988</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
         <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="48">
@@ -2318,7 +2312,7 @@
         <v>1988</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
         <v>201</v>
@@ -2335,22 +2329,22 @@
         <v>1988</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
         <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="48">
@@ -2361,7 +2355,7 @@
         <v>1988</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
         <v>201</v>
@@ -2378,7 +2372,7 @@
         <v>1989</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
         <v>201</v>
@@ -2387,10 +2381,10 @@
         <v>207</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="32">
@@ -2401,7 +2395,7 @@
         <v>1990</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
         <v>200</v>
@@ -2410,7 +2404,7 @@
         <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="48">
@@ -2421,7 +2415,7 @@
         <v>1990</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
         <v>201</v>
@@ -2438,7 +2432,7 @@
         <v>1990</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
         <v>201</v>
@@ -2450,13 +2444,13 @@
         <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="48">
@@ -2467,22 +2461,22 @@
         <v>1991</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
         <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="48">
@@ -2493,16 +2487,16 @@
         <v>1991</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
         <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="48">
@@ -2513,19 +2507,19 @@
         <v>1991</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
         <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="64">
@@ -2536,22 +2530,22 @@
         <v>1991</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
         <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="48">
@@ -2562,13 +2556,13 @@
         <v>1991</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
         <v>201</v>
       </c>
       <c r="F43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="64">
@@ -2579,7 +2573,7 @@
         <v>1991</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
         <v>200</v>
@@ -2588,7 +2582,7 @@
         <v>206</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="64">
@@ -2599,19 +2593,19 @@
         <v>1991</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
         <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I45" t="s">
         <v>206</v>
@@ -2625,16 +2619,16 @@
         <v>1992</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
         <v>201</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="48">
@@ -2645,13 +2639,13 @@
         <v>1992</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
         <v>201</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="48">
@@ -2662,16 +2656,16 @@
         <v>1992</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
         <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="64">
@@ -2682,16 +2676,16 @@
         <v>1992</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
         <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="64">
@@ -2702,22 +2696,22 @@
         <v>1992</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
         <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H50" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" t="s">
         <v>313</v>
-      </c>
-      <c r="H50" t="s">
-        <v>314</v>
-      </c>
-      <c r="I50" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="48">
@@ -2728,22 +2722,22 @@
         <v>1992</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
         <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G51" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" t="s">
+        <v>316</v>
+      </c>
+      <c r="I51" t="s">
         <v>317</v>
-      </c>
-      <c r="H51" t="s">
-        <v>318</v>
-      </c>
-      <c r="I51" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="32">
@@ -2754,13 +2748,13 @@
         <v>1993</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
         <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="80">
@@ -2771,22 +2765,22 @@
         <v>1993</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E53" t="s">
         <v>201</v>
       </c>
       <c r="F53" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" t="s">
         <v>314</v>
       </c>
-      <c r="G53" t="s">
-        <v>223</v>
-      </c>
-      <c r="H53" t="s">
-        <v>316</v>
-      </c>
       <c r="I53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="64">
@@ -2797,31 +2791,31 @@
         <v>1993</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
         <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J54" t="s">
+        <v>290</v>
+      </c>
+      <c r="K54" t="s">
+        <v>319</v>
+      </c>
+      <c r="L54" t="s">
         <v>320</v>
-      </c>
-      <c r="J54" t="s">
-        <v>292</v>
-      </c>
-      <c r="K54" t="s">
-        <v>321</v>
-      </c>
-      <c r="L54" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="32">
@@ -2832,13 +2826,13 @@
         <v>1993</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E55" t="s">
         <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="32">
@@ -2849,13 +2843,13 @@
         <v>1993</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E56" t="s">
         <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="112">
@@ -2866,31 +2860,31 @@
         <v>1993</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E57" t="s">
         <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="48">
@@ -2901,7 +2895,7 @@
         <v>1994</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
         <v>201</v>
@@ -2918,25 +2912,25 @@
         <v>1994</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
         <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G59" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I59" t="s">
         <v>206</v>
       </c>
       <c r="J59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48">
@@ -2947,13 +2941,13 @@
         <v>1994</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E60" t="s">
         <v>201</v>
       </c>
       <c r="F60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="96">
@@ -2961,7 +2955,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="64">
@@ -2972,13 +2966,13 @@
         <v>1995</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
         <v>200</v>
       </c>
       <c r="F62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48">
@@ -2989,13 +2983,13 @@
         <v>1995</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="80">
@@ -3006,28 +3000,28 @@
         <v>1995</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
         <v>208</v>
       </c>
       <c r="F64" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" t="s">
+        <v>303</v>
+      </c>
+      <c r="H64" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" t="s">
         <v>290</v>
       </c>
-      <c r="G64" t="s">
-        <v>305</v>
-      </c>
-      <c r="H64" t="s">
-        <v>223</v>
-      </c>
-      <c r="I64" t="s">
-        <v>292</v>
-      </c>
       <c r="J64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="32">
@@ -3044,16 +3038,16 @@
         <v>1995</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E66" t="s">
         <v>201</v>
       </c>
       <c r="F66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="48">
@@ -3064,16 +3058,16 @@
         <v>1995</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
         <v>201</v>
       </c>
       <c r="F67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="64">
@@ -3084,16 +3078,16 @@
         <v>1996</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="48">
@@ -3104,7 +3098,7 @@
         <v>1996</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D69" t="s">
         <v>203</v>
@@ -3113,7 +3107,7 @@
         <v>201</v>
       </c>
       <c r="F69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="48">
@@ -3124,13 +3118,13 @@
         <v>1996</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E70" t="s">
         <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="80">
@@ -3141,25 +3135,25 @@
         <v>1996</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E71" t="s">
         <v>201</v>
       </c>
       <c r="F71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G71" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="48">
@@ -3170,7 +3164,7 @@
         <v>1997</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
         <v>199</v>
@@ -3179,7 +3173,7 @@
         <v>201</v>
       </c>
       <c r="F72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G72" t="s">
         <v>206</v>
@@ -3193,13 +3187,13 @@
         <v>1998</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E73" t="s">
         <v>201</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="64">
@@ -3210,13 +3204,13 @@
         <v>1998</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
         <v>201</v>
       </c>
       <c r="F74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="64">
@@ -3227,16 +3221,16 @@
         <v>1999</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E75" t="s">
         <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="64">
@@ -3247,13 +3241,13 @@
         <v>1998</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
         <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="64">
@@ -3264,13 +3258,13 @@
         <v>1999</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
         <v>201</v>
       </c>
       <c r="F77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="32">
@@ -3281,13 +3275,13 @@
         <v>1999</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
         <v>201</v>
       </c>
       <c r="F78" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="80">
@@ -3298,13 +3292,13 @@
         <v>1999</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>201</v>
       </c>
       <c r="F79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="64">
@@ -3315,13 +3309,13 @@
         <v>1999</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
         <v>201</v>
       </c>
       <c r="F80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="64">
@@ -3332,13 +3326,13 @@
         <v>1999</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E81" t="s">
         <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="64">
@@ -3349,13 +3343,13 @@
         <v>2000</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
         <v>201</v>
       </c>
       <c r="F82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="64">
@@ -3366,16 +3360,16 @@
         <v>2000</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E83" t="s">
         <v>201</v>
       </c>
       <c r="F83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="64">
@@ -3386,13 +3380,13 @@
         <v>2000</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E84" t="s">
         <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G84" t="s">
         <v>206</v>
@@ -3406,13 +3400,13 @@
         <v>2000</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
         <v>201</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="64">
@@ -3423,33 +3417,33 @@
         <v>2000</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
         <v>201</v>
       </c>
       <c r="F86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="64">
       <c r="A87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B87">
         <v>2000</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E87" t="s">
         <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -3457,25 +3451,25 @@
     </row>
     <row r="88" spans="1:9" ht="96">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B88">
         <v>2001</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
         <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="48">
@@ -3486,19 +3480,19 @@
         <v>2001</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E89" t="s">
         <v>201</v>
       </c>
       <c r="F89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="112">
@@ -3509,13 +3503,13 @@
         <v>2001</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
         <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="64">
@@ -3526,16 +3520,16 @@
         <v>2001</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
         <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -3549,7 +3543,7 @@
         <v>2001</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
         <v>201</v>
@@ -3558,7 +3552,7 @@
         <v>206</v>
       </c>
       <c r="G92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="64">
@@ -3569,13 +3563,13 @@
         <v>2002</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
         <v>200</v>
       </c>
       <c r="F93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="48">
@@ -3586,39 +3580,39 @@
         <v>2002</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
         <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="80">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95">
         <v>2002</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E95" t="s">
         <v>201</v>
       </c>
       <c r="F95" t="s">
+        <v>312</v>
+      </c>
+      <c r="G95" t="s">
         <v>314</v>
       </c>
-      <c r="G95" t="s">
-        <v>316</v>
-      </c>
       <c r="H95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I95" t="s">
         <v>206</v>
@@ -3626,22 +3620,22 @@
     </row>
     <row r="96" spans="1:9" ht="128">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96">
         <v>2002</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E96" t="s">
         <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="144">
@@ -3652,19 +3646,19 @@
         <v>2002</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>201</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G97" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="80">
@@ -3675,31 +3669,31 @@
         <v>2002</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E98" t="s">
         <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I98" t="s">
+        <v>322</v>
+      </c>
+      <c r="J98" t="s">
+        <v>325</v>
+      </c>
+      <c r="K98" t="s">
+        <v>323</v>
+      </c>
+      <c r="L98" t="s">
         <v>324</v>
-      </c>
-      <c r="J98" t="s">
-        <v>327</v>
-      </c>
-      <c r="K98" t="s">
-        <v>325</v>
-      </c>
-      <c r="L98" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="64">
@@ -3710,31 +3704,31 @@
         <v>2002</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E99" t="s">
         <v>201</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I99" t="s">
+        <v>324</v>
+      </c>
+      <c r="J99" t="s">
+        <v>309</v>
+      </c>
+      <c r="K99" t="s">
         <v>326</v>
       </c>
-      <c r="J99" t="s">
-        <v>311</v>
-      </c>
-      <c r="K99" t="s">
-        <v>328</v>
-      </c>
       <c r="L99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="32">
@@ -3745,45 +3739,45 @@
         <v>2002</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
         <v>201</v>
       </c>
       <c r="F100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="64">
       <c r="A101" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B101">
         <v>2002</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F101" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" t="s">
+        <v>288</v>
+      </c>
+      <c r="H101" t="s">
+        <v>327</v>
+      </c>
+      <c r="I101" t="s">
+        <v>328</v>
+      </c>
+      <c r="J101" t="s">
+        <v>303</v>
+      </c>
+      <c r="K101" t="s">
         <v>304</v>
-      </c>
-      <c r="G101" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" t="s">
-        <v>329</v>
-      </c>
-      <c r="I101" t="s">
-        <v>330</v>
-      </c>
-      <c r="J101" t="s">
-        <v>305</v>
-      </c>
-      <c r="K101" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="64">
@@ -3794,13 +3788,13 @@
         <v>2002</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E102" t="s">
         <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="64">
@@ -3811,42 +3805,42 @@
         <v>2002</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E103" t="s">
         <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G103" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="80">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104">
         <v>2003</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E104" t="s">
         <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="64">
@@ -3857,16 +3851,16 @@
         <v>2003</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E105" t="s">
         <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G105" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="80">
@@ -3877,13 +3871,13 @@
         <v>2003</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E106" t="s">
         <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="80">
@@ -3894,39 +3888,39 @@
         <v>2003</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E107" t="s">
         <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G107" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="64">
       <c r="A108" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108">
         <v>2003</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E108" t="s">
         <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="64">
@@ -3937,16 +3931,16 @@
         <v>2003</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" t="s">
         <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="128">
@@ -3957,16 +3951,16 @@
         <v>2003</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E110" t="s">
         <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="48">
@@ -3977,16 +3971,16 @@
         <v>2003</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111" t="s">
         <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="64">
@@ -3997,16 +3991,16 @@
         <v>2003</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E112" t="s">
         <v>201</v>
       </c>
       <c r="F112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="80">
@@ -4017,19 +4011,19 @@
         <v>2003</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
         <v>201</v>
       </c>
       <c r="F113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G113" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H113" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="160">
@@ -4040,16 +4034,16 @@
         <v>2003</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E114" t="s">
         <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="48">
@@ -4060,16 +4054,16 @@
         <v>2004</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E115" t="s">
         <v>201</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G115" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="144">
@@ -4080,22 +4074,22 @@
         <v>2004</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E116" t="s">
         <v>201</v>
       </c>
       <c r="F116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H116" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="48">
@@ -4106,13 +4100,13 @@
         <v>2004</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E117" t="s">
         <v>201</v>
       </c>
       <c r="F117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="64">
@@ -4123,19 +4117,19 @@
         <v>2004</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
         <v>201</v>
       </c>
       <c r="F118" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G118" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="64">
@@ -4146,13 +4140,13 @@
         <v>2004</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="80">
@@ -4163,13 +4157,13 @@
         <v>2004</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
         <v>208</v>
       </c>
       <c r="F120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="64">
@@ -4177,10 +4171,10 @@
         <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="144">
@@ -4191,19 +4185,19 @@
         <v>2004</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E122" t="s">
         <v>200</v>
       </c>
       <c r="F122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G122" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="96">
@@ -4214,13 +4208,13 @@
         <v>2004</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E123" t="s">
         <v>200</v>
       </c>
       <c r="F123" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G123" t="s">
         <v>206</v>
@@ -4234,16 +4228,16 @@
         <v>2005</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E124" t="s">
         <v>208</v>
       </c>
       <c r="F124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="64">
@@ -4254,22 +4248,22 @@
         <v>2005</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E125" t="s">
         <v>201</v>
       </c>
       <c r="F125" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H125" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I125" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="80">
@@ -4280,13 +4274,13 @@
         <v>2006</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E126" t="s">
         <v>201</v>
       </c>
       <c r="F126" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="96">
@@ -4297,16 +4291,16 @@
         <v>2006</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E127" t="s">
         <v>201</v>
       </c>
       <c r="F127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G127" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="144">
@@ -4317,13 +4311,13 @@
         <v>2006</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E128" t="s">
         <v>201</v>
       </c>
       <c r="F128" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="96">
@@ -4334,37 +4328,37 @@
         <v>2006</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E129" t="s">
         <v>201</v>
       </c>
       <c r="F129" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G129" t="s">
+        <v>310</v>
+      </c>
+      <c r="H129" t="s">
+        <v>302</v>
+      </c>
+      <c r="I129" t="s">
+        <v>332</v>
+      </c>
+      <c r="J129" t="s">
+        <v>290</v>
+      </c>
+      <c r="K129" t="s">
+        <v>291</v>
+      </c>
+      <c r="L129" t="s">
         <v>312</v>
       </c>
-      <c r="H129" t="s">
-        <v>304</v>
-      </c>
-      <c r="I129" t="s">
-        <v>334</v>
-      </c>
-      <c r="J129" t="s">
-        <v>292</v>
-      </c>
-      <c r="K129" t="s">
-        <v>293</v>
-      </c>
-      <c r="L129" t="s">
-        <v>314</v>
-      </c>
       <c r="M129" t="s">
+        <v>324</v>
+      </c>
+      <c r="N129" t="s">
         <v>326</v>
-      </c>
-      <c r="N129" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="48">
@@ -4375,13 +4369,13 @@
         <v>2006</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E130" t="s">
         <v>201</v>
       </c>
       <c r="F130" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="96">
@@ -4392,16 +4386,16 @@
         <v>2006</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E131" t="s">
         <v>201</v>
       </c>
       <c r="F131" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="64">
@@ -4412,28 +4406,28 @@
         <v>2006</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E132" t="s">
         <v>208</v>
       </c>
       <c r="F132" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G132" t="s">
+        <v>310</v>
+      </c>
+      <c r="H132" t="s">
+        <v>288</v>
+      </c>
+      <c r="I132" t="s">
         <v>312</v>
       </c>
-      <c r="H132" t="s">
-        <v>290</v>
-      </c>
-      <c r="I132" t="s">
-        <v>314</v>
-      </c>
       <c r="J132" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="48">
@@ -4444,39 +4438,39 @@
         <v>2007</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E133" t="s">
         <v>201</v>
       </c>
       <c r="F133" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G133" t="s">
+        <v>309</v>
+      </c>
+      <c r="H133" t="s">
         <v>311</v>
-      </c>
-      <c r="H133" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="112">
       <c r="A134" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B134">
         <v>2007</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E134" t="s">
         <v>201</v>
       </c>
       <c r="F134" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="80">
@@ -4487,30 +4481,30 @@
         <v>2007</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E135" t="s">
         <v>201</v>
       </c>
       <c r="F135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="80">
       <c r="A136" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B136">
         <v>2007</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E136" t="s">
         <v>201</v>
       </c>
       <c r="F136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="64">
@@ -4521,25 +4515,25 @@
         <v>2007</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E137" t="s">
         <v>201</v>
       </c>
       <c r="F137" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G137" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I137" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J137" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="112">
@@ -4550,31 +4544,31 @@
         <v>2007</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E138" t="s">
         <v>201</v>
       </c>
       <c r="F138" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G138" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I138" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J138" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="80">
@@ -4585,16 +4579,16 @@
         <v>2007</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E139" t="s">
         <v>201</v>
       </c>
       <c r="F139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G139" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="160">
@@ -4605,10 +4599,10 @@
         <v>2007</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D140" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E140" t="s">
         <v>201</v>
@@ -4617,13 +4611,13 @@
         <v>206</v>
       </c>
       <c r="G140" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="160">
@@ -4634,13 +4628,13 @@
         <v>2007</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E141" t="s">
         <v>201</v>
       </c>
       <c r="F141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="80">
@@ -4651,25 +4645,25 @@
         <v>2007</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E142" t="s">
         <v>201</v>
       </c>
       <c r="F142" t="s">
+        <v>310</v>
+      </c>
+      <c r="G142" t="s">
+        <v>291</v>
+      </c>
+      <c r="H142" t="s">
+        <v>302</v>
+      </c>
+      <c r="I142" t="s">
         <v>312</v>
       </c>
-      <c r="G142" t="s">
-        <v>293</v>
-      </c>
-      <c r="H142" t="s">
-        <v>304</v>
-      </c>
-      <c r="I142" t="s">
-        <v>314</v>
-      </c>
       <c r="J142" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="64">
@@ -4680,13 +4674,13 @@
         <v>2008</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E143" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="48">
@@ -4697,31 +4691,31 @@
         <v>2008</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E144" t="s">
         <v>201</v>
       </c>
       <c r="F144" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G144" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H144" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I144" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L144" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="48">
@@ -4732,13 +4726,13 @@
         <v>2008</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E145" t="s">
         <v>201</v>
       </c>
       <c r="F145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="64">
@@ -4749,13 +4743,13 @@
         <v>2008</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E146" t="s">
         <v>201</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="80">
@@ -4766,16 +4760,16 @@
         <v>2008</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E147" t="s">
         <v>201</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="64">
@@ -4786,16 +4780,16 @@
         <v>2008</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s">
         <v>201</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="80">
@@ -4806,16 +4800,16 @@
         <v>2009</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E149" t="s">
         <v>208</v>
       </c>
       <c r="F149" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="96">
@@ -4826,13 +4820,13 @@
         <v>2009</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E150" t="s">
         <v>201</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="48">
@@ -4843,16 +4837,16 @@
         <v>2009</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E151" t="s">
         <v>208</v>
       </c>
       <c r="F151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G151" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="112">
@@ -4863,13 +4857,13 @@
         <v>2009</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E152" t="s">
         <v>208</v>
       </c>
       <c r="F152" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="48">
@@ -4880,16 +4874,16 @@
         <v>2009</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E153" t="s">
         <v>201</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G153" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H153" t="s">
         <v>206</v>
@@ -4903,13 +4897,13 @@
         <v>2009</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E154" t="s">
         <v>201</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G154" t="s">
         <v>206</v>
@@ -4923,13 +4917,13 @@
         <v>2009</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E155" t="s">
         <v>201</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="80">
@@ -4940,16 +4934,16 @@
         <v>2010</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E156" t="s">
         <v>208</v>
       </c>
       <c r="F156" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G156" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="64">
@@ -4960,13 +4954,13 @@
         <v>2010</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s">
         <v>208</v>
       </c>
       <c r="F157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="64">
@@ -4977,13 +4971,13 @@
         <v>2010</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E158" t="s">
         <v>201</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="64">
@@ -4994,13 +4988,13 @@
         <v>2010</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E159" t="s">
         <v>201</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="80">
@@ -5011,22 +5005,22 @@
         <v>2010</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E160" t="s">
         <v>201</v>
       </c>
       <c r="F160" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G160" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I160" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="64">
@@ -5037,16 +5031,16 @@
         <v>2010</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E161" t="s">
         <v>201</v>
       </c>
       <c r="F161" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G161" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="80">
@@ -5057,16 +5051,16 @@
         <v>2010</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
         <v>201</v>
       </c>
       <c r="F162" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="64">
@@ -5077,25 +5071,25 @@
         <v>2010</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E163" t="s">
         <v>201</v>
       </c>
       <c r="F163" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H163" t="s">
         <v>206</v>
       </c>
       <c r="I163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="128">
@@ -5106,39 +5100,39 @@
         <v>2010</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E164" t="s">
         <v>208</v>
       </c>
       <c r="F164" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G164" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="80">
       <c r="A165" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B165">
         <v>2011</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E165" t="s">
         <v>208</v>
       </c>
       <c r="F165" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G165" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H165" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I165" t="s">
         <v>206</v>
@@ -5152,7 +5146,7 @@
         <v>2011</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E166" t="s">
         <v>200</v>
@@ -5166,13 +5160,13 @@
         <v>2011</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E167" t="s">
         <v>200</v>
       </c>
       <c r="F167" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="80">
@@ -5183,16 +5177,16 @@
         <v>2011</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E168" t="s">
         <v>201</v>
       </c>
       <c r="F168" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G168" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="80">
@@ -5203,16 +5197,16 @@
         <v>2011</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E169" t="s">
         <v>208</v>
       </c>
       <c r="F169" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G169" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="96">
@@ -5223,16 +5217,16 @@
         <v>2011</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E170" t="s">
         <v>200</v>
       </c>
       <c r="F170" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G170" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="64">
@@ -5243,7 +5237,7 @@
         <v>2011</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E171" t="s">
         <v>200</v>
@@ -5257,13 +5251,13 @@
         <v>2012</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E172" t="s">
         <v>201</v>
       </c>
       <c r="F172" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="64">
@@ -5274,10 +5268,10 @@
         <v>2012</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E173" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="80">
@@ -5288,19 +5282,19 @@
         <v>2012</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E174" t="s">
         <v>201</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G174" t="s">
         <v>206</v>
       </c>
       <c r="H174" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="80">
@@ -5311,19 +5305,19 @@
         <v>2012</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E175" t="s">
         <v>208</v>
       </c>
       <c r="F175" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G175" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H175" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="80">
@@ -5334,22 +5328,22 @@
         <v>2012</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E176" t="s">
         <v>200</v>
       </c>
       <c r="F176" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I176" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="96">
@@ -5360,13 +5354,13 @@
         <v>2012</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E177" t="s">
         <v>201</v>
       </c>
       <c r="F177" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="80">
@@ -5377,13 +5371,13 @@
         <v>2012</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E178" t="s">
         <v>208</v>
       </c>
       <c r="F178" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G178" t="s">
         <v>206</v>
@@ -5397,13 +5391,13 @@
         <v>2013</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E179" t="s">
         <v>208</v>
       </c>
       <c r="F179" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="64">
@@ -5414,13 +5408,13 @@
         <v>2013</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E180" t="s">
         <v>201</v>
       </c>
       <c r="F180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="144">
@@ -5431,16 +5425,16 @@
         <v>2013</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E181" t="s">
         <v>208</v>
       </c>
       <c r="F181" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G181" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="64">
@@ -5451,13 +5445,13 @@
         <v>2013</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E182" t="s">
         <v>200</v>
       </c>
       <c r="F182" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="64">
@@ -5468,7 +5462,7 @@
         <v>2013</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E183" t="s">
         <v>200</v>
@@ -5482,13 +5476,13 @@
         <v>2013</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E184" t="s">
         <v>201</v>
       </c>
       <c r="F184" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="80">
@@ -5499,22 +5493,22 @@
         <v>2013</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E185" t="s">
         <v>201</v>
       </c>
       <c r="F185" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H185" t="s">
         <v>206</v>
       </c>
       <c r="I185" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="112">
@@ -5525,10 +5519,10 @@
         <v>2013</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E186" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="96">
@@ -5539,7 +5533,7 @@
         <v>2013</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E187" t="s">
         <v>201</v>
@@ -5553,16 +5547,16 @@
         <v>2013</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E188" t="s">
         <v>208</v>
       </c>
       <c r="F188" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G188" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="64">
@@ -5573,13 +5567,13 @@
         <v>2013</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E189" t="s">
         <v>208</v>
       </c>
       <c r="F189" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="64">
@@ -5590,16 +5584,16 @@
         <v>2013</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E190" t="s">
         <v>208</v>
       </c>
       <c r="F190" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G190" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="48">
@@ -5610,13 +5604,13 @@
         <v>2013</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E191" t="s">
         <v>200</v>
       </c>
       <c r="F191" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="80">
@@ -5627,13 +5621,13 @@
         <v>2014</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E192" t="s">
         <v>201</v>
       </c>
       <c r="F192" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="80">
@@ -5644,13 +5638,13 @@
         <v>2014</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E193" t="s">
         <v>208</v>
       </c>
       <c r="F193" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="64">
@@ -5661,13 +5655,13 @@
         <v>2014</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E194" t="s">
         <v>201</v>
       </c>
       <c r="F194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="80">
@@ -5678,13 +5672,13 @@
         <v>2014</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E195" t="s">
         <v>201</v>
       </c>
       <c r="F195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="64">
@@ -5695,13 +5689,13 @@
         <v>2014</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E196" t="s">
         <v>201</v>
       </c>
       <c r="F196" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="64">
@@ -5712,19 +5706,19 @@
         <v>2014</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E197" t="s">
         <v>201</v>
       </c>
       <c r="F197" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G197" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H197" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="96">
@@ -5735,16 +5729,16 @@
         <v>2014</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E198" t="s">
         <v>201</v>
       </c>
       <c r="F198" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G198" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="80">
@@ -5755,16 +5749,16 @@
         <v>2014</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E199" t="s">
         <v>201</v>
       </c>
       <c r="F199" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G199" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="64">
@@ -5775,13 +5769,13 @@
         <v>2014</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E200" t="s">
         <v>201</v>
       </c>
       <c r="F200" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="64">
@@ -5792,19 +5786,19 @@
         <v>2014</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E201" t="s">
         <v>201</v>
       </c>
       <c r="F201" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G201" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H201" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="80">
@@ -5815,13 +5809,13 @@
         <v>2015</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E202" t="s">
         <v>201</v>
       </c>
       <c r="F202" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="32">
@@ -5832,13 +5826,13 @@
         <v>2015</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E203" t="s">
         <v>200</v>
       </c>
       <c r="F203" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="64">
@@ -5849,25 +5843,25 @@
         <v>2015</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E204" t="s">
         <v>201</v>
       </c>
       <c r="F204" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G204" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H204" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I204" t="s">
         <v>206</v>
       </c>
       <c r="J204" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="80">
@@ -5878,16 +5872,16 @@
         <v>2015</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E205" t="s">
         <v>201</v>
       </c>
       <c r="F205" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G205" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="64">
@@ -5898,7 +5892,7 @@
         <v>2015</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E206" t="s">
         <v>200</v>
@@ -5906,42 +5900,42 @@
     </row>
     <row r="207" spans="1:10" ht="80">
       <c r="A207" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B207">
         <v>2015</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E207" t="s">
         <v>208</v>
       </c>
       <c r="F207" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G207" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="48">
       <c r="A208" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B208">
         <v>2016</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E208" t="s">
         <v>208</v>
       </c>
       <c r="F208" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G208" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="96">
@@ -5952,19 +5946,19 @@
         <v>2015</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E209" t="s">
         <v>200</v>
       </c>
       <c r="F209" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G209" t="s">
         <v>206</v>
       </c>
       <c r="H209" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="96">
@@ -5975,16 +5969,16 @@
         <v>2015</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E210" t="s">
         <v>201</v>
       </c>
       <c r="F210" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G210" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
